--- a/biology/Zoologie/Coulicou_à_bec_jaune/Coulicou_à_bec_jaune.xlsx
+++ b/biology/Zoologie/Coulicou_à_bec_jaune/Coulicou_à_bec_jaune.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Coulicou_%C3%A0_bec_jaune</t>
+          <t>Coulicou_à_bec_jaune</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coccyzus americanus
 Le Coulicou à bec jaune (Coccyzus americanus) est une espèce de coucou américain de la famille des Cuculidae.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Coulicou_%C3%A0_bec_jaune</t>
+          <t>Coulicou_à_bec_jaune</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le coulicou à bec jaune à la mandibule supérieure et l'extrémité inférieure de couleur noir, le reste de la mandibule inférieure étant jaune. Les parties supérieures sont olive verdâtre métallique légèrement teintées de cendre vers le bec. Le dessous est blanc. Les plumes de la queue (à l'exception de la médiane qui est semblable au dos) sont noires terminées de blanc sur les externes. Les pennes sont orange cannelle. L'iris est brun.
 </t>
